--- a/00.프로젝트 관리/프로젝트 계획서_250114.xlsx
+++ b/00.프로젝트 관리/프로젝트 계획서_250114.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="22620" windowHeight="14220" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="22620" windowHeight="14220"/>
   </bookViews>
   <sheets>
     <sheet name="프로젝트 전체일정" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="114">
   <si>
     <t>2차 팀프로젝트 일정표</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -366,10 +366,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>구조</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>갤러리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -378,18 +374,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>배경음악 On/Off 버튼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Top 이동 버튼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>커서 효과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Mercury 와 동일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -399,17 +383,6 @@
   </si>
   <si>
     <t>공통 1. 행성 반대편에서 타이핑 애니메이션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Default 값은 On
-2. 클릭시 배경음악 On/Off 조절 
-3. position: fixed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 클릭시 해당 페이지 상단으로 이동
-2. position: fixed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -680,11 +653,6 @@
 2. 사이트 구현 시작
 1) Mercury
 - 첫 컨텐츠 , Introduction , Namesake , Potential for Life 까지 CSS 잡았음.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>질문
-1. 글꼴 변수에 담는 부분, 어디에서 적용이 안되는 것인지 모르겠음.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -794,10 +762,134 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.  Mercury 완료하고 CSS 중복되는 부분 합쳐야함.
-2. 글자 및 행성관련 이징 , 애니메이션 충분히 테스트해보고 적용하기
-3. 부드러운 스크롤 적용
-4. 폰트 적용 질문하기</t>
+    <t>질문
+1. 폰트를 변수 할당, 어디가 문제인 것인지 모르겠음.
+2. 그리드 
+- 개별 이미지 셋팅하는 방법
+- 그리드 이미지들이 둥둥 떠나닐 수 있는 효과를 주려면 ?
+3. SCSS 관리 문제
+공통되는 영역은 어떻게 묶어 관리하는 것이 좋은지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답변 
+1. sass 문법에 맞게 링크 @import 하고, $를 써서 변수 할당하면 됨.
+2. 지금 구조에서는 aspect-ratio 를 겉박스 말고 img한테 직접 주기
+3. mixin 에 담아 include 시키거나, extend 기능을 사용해보자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">1.  Mercury 완료하고 CSS 중복되는 부분 합쳐야함. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">= Mercury부터 최대한 완성하기. 이번주는 해당 페이지 기능적인 구현도 진행.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
+2. 글자 및 행성관련 이징 , 애니메이션 충분히 테스트해보고 적용하기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
+3</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>. 부드러운 스크롤 적용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>4. 폰트 적용 질문하기</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 사이트 구현
+1) Mercury
+- Potential for Life까지 CSS 재정비
+- Gallery 구현
+- sass 파일 작성
+- 폰트 일괄적용 완료
+2. 피그마, 발사믹 제출완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. sass 중복되는 부분 합쳐야함.(mixin || extend 사용하기)
+2.(이월) 글자 및 행성관련 이징 , 애니메이션 충분히 테스트해보고 적용하기
+3. (이월)부드러운 스크롤 적용
+4. 갤러리 JS 구현하기.
+5. 갤러리 JS 까지 구현되면 미디어쿼리 진행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Structure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커서 효과</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -811,7 +903,7 @@
     <numFmt numFmtId="178" formatCode="d"/>
     <numFmt numFmtId="179" formatCode="aaa"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1008,6 +1100,23 @@
     <font>
       <sz val="15"/>
       <color rgb="FF0000FF"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -1419,7 +1528,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1564,6 +1673,57 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1594,15 +1754,6 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1612,40 +1763,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1655,15 +1779,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1820,13 +1935,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>942975</xdr:colOff>
-          <xdr:row>34</xdr:row>
+          <xdr:row>32</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>1676400</xdr:colOff>
-          <xdr:row>34</xdr:row>
+          <xdr:row>32</xdr:row>
           <xdr:rowOff>409575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2076,6 +2191,134 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>942975</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>123825</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1676400</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>409575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1037" name="Check Box 13" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1037"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>942975</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>123825</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1676400</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>409575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1038" name="Check Box 14" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1038"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>942975</xdr:colOff>
           <xdr:row>30</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
@@ -2087,10 +2330,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1037" name="Check Box 13" hidden="1">
+            <xdr:cNvPr id="1039" name="Check Box 15" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1037"/>
+                  <a14:compatExt spid="_x0000_s1039"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2151,74 +2394,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1038" name="Check Box 14" hidden="1">
+            <xdr:cNvPr id="1040" name="Check Box 16" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1038"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>942975</xdr:colOff>
-          <xdr:row>32</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>1676400</xdr:colOff>
-          <xdr:row>32</xdr:row>
-          <xdr:rowOff>409575</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1039" name="Check Box 15" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1039"/>
+                  <a14:compatExt spid="_x0000_s1040"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2274,71 +2453,7 @@
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>1676400</xdr:colOff>
-          <xdr:row>33</xdr:row>
-          <xdr:rowOff>409575</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1040" name="Check Box 16" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1040"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>942975</xdr:colOff>
-          <xdr:row>35</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>1676400</xdr:colOff>
-          <xdr:row>36</xdr:row>
+          <xdr:row>34</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2396,13 +2511,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>942975</xdr:colOff>
-          <xdr:row>29</xdr:row>
+          <xdr:row>27</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>1676400</xdr:colOff>
-          <xdr:row>30</xdr:row>
+          <xdr:row>28</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2720,10 +2835,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AA40"/>
+  <dimension ref="B1:AA38"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AD35" sqref="AD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2745,12 +2860,12 @@
   <sheetData>
     <row r="1" spans="2:27" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:27" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
       <c r="H2" s="20"/>
@@ -2766,7 +2881,7 @@
       </c>
       <c r="F3" s="15">
         <f ca="1">TODAY()</f>
-        <v>45670</v>
+        <v>45671</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="21" t="s">
@@ -2777,60 +2892,60 @@
       </c>
     </row>
     <row r="4" spans="2:27" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="61" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" s="55" t="s">
+      <c r="D4" s="75" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="58" t="s">
+      <c r="F4" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="H4" s="70" t="s">
+      <c r="G4" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="73" t="s">
+      <c r="I4" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="68">
+      <c r="J4" s="54">
         <v>45670</v>
       </c>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
-      <c r="U4" s="69"/>
-      <c r="V4" s="69"/>
-      <c r="W4" s="69"/>
-      <c r="X4" s="69"/>
-      <c r="Y4" s="69"/>
-      <c r="Z4" s="69"/>
-      <c r="AA4" s="69"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="55"/>
+      <c r="T4" s="55"/>
+      <c r="U4" s="55"/>
+      <c r="V4" s="55"/>
+      <c r="W4" s="55"/>
+      <c r="X4" s="55"/>
+      <c r="Y4" s="55"/>
+      <c r="Z4" s="55"/>
+      <c r="AA4" s="55"/>
     </row>
     <row r="5" spans="2:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="53"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="74"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="60"/>
       <c r="J5" s="19">
         <f>J4</f>
         <v>45670</v>
@@ -2905,14 +3020,14 @@
       </c>
     </row>
     <row r="6" spans="2:27" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="54"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="75"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="61"/>
       <c r="J6" s="31">
         <f>J5</f>
         <v>45670</v>
@@ -2998,15 +3113,15 @@
       <c r="F7" s="11">
         <v>45695</v>
       </c>
-      <c r="G7" s="67" t="s">
-        <v>82</v>
+      <c r="G7" s="53" t="s">
+        <v>76</v>
       </c>
       <c r="H7" s="22">
         <f>IF(F7="","",F7+1-E7)</f>
         <v>26</v>
       </c>
       <c r="I7" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>12</v>
@@ -3031,10 +3146,10 @@
     </row>
     <row r="8" spans="2:27" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D8" s="30"/>
       <c r="E8" s="11">
@@ -3043,13 +3158,13 @@
       <c r="F8" s="11">
         <v>45695</v>
       </c>
-      <c r="G8" s="65"/>
+      <c r="G8" s="51"/>
       <c r="H8" s="22">
         <f t="shared" ref="H8:H12" si="3">IF(F8="","",F8+1-E8)</f>
         <v>26</v>
       </c>
       <c r="I8" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -3072,10 +3187,10 @@
     </row>
     <row r="9" spans="2:27" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>102</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>108</v>
       </c>
       <c r="D9" s="30"/>
       <c r="E9" s="11">
@@ -3084,13 +3199,13 @@
       <c r="F9" s="11">
         <v>45695</v>
       </c>
-      <c r="G9" s="65"/>
+      <c r="G9" s="51"/>
       <c r="H9" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="I9" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -3113,10 +3228,10 @@
     </row>
     <row r="10" spans="2:27" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D10" s="30"/>
       <c r="E10" s="11">
@@ -3125,13 +3240,13 @@
       <c r="F10" s="11">
         <v>45695</v>
       </c>
-      <c r="G10" s="65"/>
+      <c r="G10" s="51"/>
       <c r="H10" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="I10" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -3154,10 +3269,10 @@
     </row>
     <row r="11" spans="2:27" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D11" s="30"/>
       <c r="E11" s="11">
@@ -3166,13 +3281,13 @@
       <c r="F11" s="11">
         <v>45695</v>
       </c>
-      <c r="G11" s="65"/>
+      <c r="G11" s="51"/>
       <c r="H11" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="I11" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -3195,10 +3310,10 @@
     </row>
     <row r="12" spans="2:27" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="11">
@@ -3207,7 +3322,7 @@
       <c r="F12" s="11">
         <v>45695</v>
       </c>
-      <c r="G12" s="65"/>
+      <c r="G12" s="51"/>
       <c r="H12" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3248,9 +3363,9 @@
       <c r="F13" s="11">
         <v>45695</v>
       </c>
-      <c r="G13" s="65"/>
+      <c r="G13" s="51"/>
       <c r="H13" s="22">
-        <f t="shared" ref="H13:H40" si="4">IF(F13="","",F13+1-E13)</f>
+        <f t="shared" ref="H13:H38" si="4">IF(F13="","",F13+1-E13)</f>
         <v>26</v>
       </c>
       <c r="I13" s="18">
@@ -3277,10 +3392,10 @@
     </row>
     <row r="14" spans="2:27" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="11">
@@ -3289,7 +3404,7 @@
       <c r="F14" s="11">
         <v>45695</v>
       </c>
-      <c r="G14" s="65"/>
+      <c r="G14" s="51"/>
       <c r="H14" s="22">
         <f t="shared" si="4"/>
         <v>26</v>
@@ -3328,7 +3443,7 @@
       <c r="F15" s="11">
         <v>45695</v>
       </c>
-      <c r="G15" s="65"/>
+      <c r="G15" s="51"/>
       <c r="H15" s="22">
         <f t="shared" si="4"/>
         <v>26</v>
@@ -3367,15 +3482,15 @@
       <c r="F16" s="11">
         <v>45674</v>
       </c>
-      <c r="G16" s="64" t="s">
-        <v>83</v>
+      <c r="G16" s="50" t="s">
+        <v>77</v>
       </c>
       <c r="H16" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I16" s="18">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -3401,7 +3516,7 @@
         <v>58</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="11">
@@ -3410,7 +3525,7 @@
       <c r="F17" s="11">
         <v>45674</v>
       </c>
-      <c r="G17" s="65"/>
+      <c r="G17" s="51"/>
       <c r="H17" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3442,7 +3557,7 @@
         <v>59</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="11">
@@ -3451,9 +3566,9 @@
       <c r="F18" s="11">
         <v>45674</v>
       </c>
-      <c r="G18" s="65"/>
+      <c r="G18" s="51"/>
       <c r="H18" s="22">
-        <f t="shared" ref="H18:H30" si="5">IF(F18="","",F18+1-E18)</f>
+        <f t="shared" ref="H18:H28" si="5">IF(F18="","",F18+1-E18)</f>
         <v>5</v>
       </c>
       <c r="I18" s="18">
@@ -3490,13 +3605,13 @@
       <c r="F19" s="11">
         <v>45674</v>
       </c>
-      <c r="G19" s="65"/>
+      <c r="G19" s="51"/>
       <c r="H19" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="I19" s="18">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -3519,7 +3634,7 @@
     </row>
     <row r="20" spans="2:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="18"/>
@@ -3529,13 +3644,13 @@
       <c r="F20" s="11">
         <v>45674</v>
       </c>
-      <c r="G20" s="65"/>
+      <c r="G20" s="51"/>
       <c r="H20" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="I20" s="18">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -3558,7 +3673,7 @@
     </row>
     <row r="21" spans="2:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="18"/>
@@ -3568,13 +3683,13 @@
       <c r="F21" s="11">
         <v>45674</v>
       </c>
-      <c r="G21" s="65"/>
+      <c r="G21" s="51"/>
       <c r="H21" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="I21" s="18">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -3597,7 +3712,7 @@
     </row>
     <row r="22" spans="2:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="18"/>
@@ -3607,13 +3722,13 @@
       <c r="F22" s="11">
         <v>45674</v>
       </c>
-      <c r="G22" s="65"/>
+      <c r="G22" s="51"/>
       <c r="H22" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="I22" s="18">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -3636,7 +3751,7 @@
     </row>
     <row r="23" spans="2:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="18"/>
@@ -3646,13 +3761,13 @@
       <c r="F23" s="11">
         <v>45674</v>
       </c>
-      <c r="G23" s="65"/>
+      <c r="G23" s="51"/>
       <c r="H23" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="I23" s="18">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -3675,10 +3790,10 @@
     </row>
     <row r="24" spans="2:27" ht="33" x14ac:dyDescent="0.3">
       <c r="B24" s="29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D24" s="30"/>
       <c r="E24" s="11">
@@ -3687,13 +3802,13 @@
       <c r="F24" s="11">
         <v>45674</v>
       </c>
-      <c r="G24" s="65"/>
+      <c r="G24" s="51"/>
       <c r="H24" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="I24" s="18">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -3716,10 +3831,10 @@
     </row>
     <row r="25" spans="2:27" ht="33" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D25" s="30"/>
       <c r="E25" s="11">
@@ -3728,13 +3843,13 @@
       <c r="F25" s="11">
         <v>45674</v>
       </c>
-      <c r="G25" s="65"/>
+      <c r="G25" s="51"/>
       <c r="H25" s="22">
         <f t="shared" ref="H25" si="6">IF(F25="","",F25+1-E25)</f>
         <v>5</v>
       </c>
       <c r="I25" s="18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -3757,10 +3872,10 @@
     </row>
     <row r="26" spans="2:27" ht="33" x14ac:dyDescent="0.3">
       <c r="B26" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D26" s="18"/>
       <c r="E26" s="11">
@@ -3769,7 +3884,7 @@
       <c r="F26" s="11">
         <v>45674</v>
       </c>
-      <c r="G26" s="65"/>
+      <c r="G26" s="51"/>
       <c r="H26" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -3796,12 +3911,12 @@
       <c r="Z26" s="1"/>
       <c r="AA26" s="36"/>
     </row>
-    <row r="27" spans="2:27" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>70</v>
       </c>
       <c r="D27" s="18"/>
       <c r="E27" s="11">
@@ -3810,7 +3925,7 @@
       <c r="F27" s="11">
         <v>45674</v>
       </c>
-      <c r="G27" s="65"/>
+      <c r="G27" s="51"/>
       <c r="H27" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -3837,28 +3952,26 @@
       <c r="Z27" s="1"/>
       <c r="AA27" s="36"/>
     </row>
-    <row r="28" spans="2:27" ht="33" x14ac:dyDescent="0.3">
-      <c r="B28" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="10" t="s">
+    <row r="28" spans="2:27" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="B28" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D28" s="18"/>
+      <c r="C28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="30"/>
       <c r="E28" s="11">
-        <v>45670</v>
+        <v>45677</v>
       </c>
       <c r="F28" s="11">
-        <v>45674</v>
-      </c>
-      <c r="G28" s="65"/>
+        <v>45678</v>
+      </c>
+      <c r="G28" s="51"/>
       <c r="H28" s="22">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="I28" s="18">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I28" s="18"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -3878,24 +3991,24 @@
       <c r="Z28" s="1"/>
       <c r="AA28" s="36"/>
     </row>
-    <row r="29" spans="2:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="29" t="s">
-        <v>66</v>
+    <row r="29" spans="2:27" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="B29" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="18"/>
+        <v>63</v>
+      </c>
+      <c r="D29" s="30"/>
       <c r="E29" s="11">
-        <v>45670</v>
+        <v>45677</v>
       </c>
       <c r="F29" s="11">
-        <v>45674</v>
-      </c>
-      <c r="G29" s="65"/>
+        <v>45678</v>
+      </c>
+      <c r="G29" s="51"/>
       <c r="H29" s="22">
-        <f t="shared" si="5"/>
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="I29" s="18">
         <v>0</v>
@@ -3921,10 +4034,10 @@
     </row>
     <row r="30" spans="2:27" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B30" s="6" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D30" s="30"/>
       <c r="E30" s="11">
@@ -3933,12 +4046,14 @@
       <c r="F30" s="11">
         <v>45678</v>
       </c>
-      <c r="G30" s="65"/>
+      <c r="G30" s="51"/>
       <c r="H30" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="I30" s="18"/>
+      <c r="I30" s="18">
+        <v>0</v>
+      </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -3960,19 +4075,19 @@
     </row>
     <row r="31" spans="2:27" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B31" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D31" s="30"/>
       <c r="E31" s="11">
-        <v>45677</v>
+        <v>45679</v>
       </c>
       <c r="F31" s="11">
-        <v>45678</v>
-      </c>
-      <c r="G31" s="65"/>
+        <v>45680</v>
+      </c>
+      <c r="G31" s="51"/>
       <c r="H31" s="22">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -4001,19 +4116,19 @@
     </row>
     <row r="32" spans="2:27" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B32" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D32" s="30"/>
       <c r="E32" s="11">
-        <v>45677</v>
+        <v>45679</v>
       </c>
       <c r="F32" s="11">
-        <v>45678</v>
-      </c>
-      <c r="G32" s="65"/>
+        <v>45680</v>
+      </c>
+      <c r="G32" s="51"/>
       <c r="H32" s="22">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -4042,22 +4157,22 @@
     </row>
     <row r="33" spans="2:27" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B33" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D33" s="30"/>
+        <v>63</v>
+      </c>
+      <c r="D33" s="18"/>
       <c r="E33" s="11">
-        <v>45679</v>
+        <v>45681</v>
       </c>
       <c r="F33" s="11">
-        <v>45680</v>
-      </c>
-      <c r="G33" s="65"/>
+        <v>45684</v>
+      </c>
+      <c r="G33" s="51"/>
       <c r="H33" s="22">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I33" s="18">
         <v>0</v>
@@ -4081,24 +4196,24 @@
       <c r="Z33" s="1"/>
       <c r="AA33" s="36"/>
     </row>
-    <row r="34" spans="2:27" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:27" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D34" s="30"/>
       <c r="E34" s="11">
-        <v>45679</v>
+        <v>45681</v>
       </c>
       <c r="F34" s="11">
-        <v>45680</v>
-      </c>
-      <c r="G34" s="65"/>
+        <v>45684</v>
+      </c>
+      <c r="G34" s="52"/>
       <c r="H34" s="22">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I34" s="18">
         <v>0</v>
@@ -4124,22 +4239,22 @@
     </row>
     <row r="35" spans="2:27" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B35" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>67</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C35" s="10"/>
       <c r="D35" s="18"/>
       <c r="E35" s="11">
-        <v>45681</v>
+        <v>45688</v>
       </c>
       <c r="F35" s="11">
-        <v>45684</v>
-      </c>
-      <c r="G35" s="65"/>
+        <v>45695</v>
+      </c>
+      <c r="G35" s="46" t="s">
+        <v>78</v>
+      </c>
       <c r="H35" s="22">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I35" s="18">
         <v>0</v>
@@ -4163,24 +4278,22 @@
       <c r="Z35" s="1"/>
       <c r="AA35" s="36"/>
     </row>
-    <row r="36" spans="2:27" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D36" s="30"/>
+    <row r="36" spans="2:27" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="10"/>
+      <c r="D36" s="18"/>
       <c r="E36" s="11">
-        <v>45681</v>
+        <v>45670</v>
       </c>
       <c r="F36" s="11">
-        <v>45684</v>
-      </c>
-      <c r="G36" s="66"/>
+        <v>45698</v>
+      </c>
+      <c r="G36" s="46"/>
       <c r="H36" s="22">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="I36" s="18">
         <v>0</v>
@@ -4204,24 +4317,22 @@
       <c r="Z36" s="1"/>
       <c r="AA36" s="36"/>
     </row>
-    <row r="37" spans="2:27" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="B37" s="6" t="s">
-        <v>15</v>
+    <row r="37" spans="2:27" ht="52.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="18"/>
       <c r="E37" s="11">
-        <v>45688</v>
+        <v>45670</v>
       </c>
       <c r="F37" s="11">
-        <v>45695</v>
-      </c>
-      <c r="G37" s="46" t="s">
-        <v>84</v>
-      </c>
+        <v>45698</v>
+      </c>
+      <c r="G37" s="46"/>
       <c r="H37" s="22">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="I37" s="18">
         <v>0</v>
@@ -4247,7 +4358,7 @@
     </row>
     <row r="38" spans="2:27" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="18"/>
@@ -4284,111 +4395,33 @@
       <c r="Z38" s="1"/>
       <c r="AA38" s="36"/>
     </row>
-    <row r="39" spans="2:27" ht="52.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="11">
-        <v>45670</v>
-      </c>
-      <c r="F39" s="11">
-        <v>45698</v>
-      </c>
-      <c r="G39" s="46"/>
-      <c r="H39" s="22">
-        <f t="shared" si="4"/>
-        <v>29</v>
-      </c>
-      <c r="I39" s="18">
-        <v>0</v>
-      </c>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
-      <c r="U39" s="1"/>
-      <c r="V39" s="1"/>
-      <c r="W39" s="1"/>
-      <c r="X39" s="1"/>
-      <c r="Y39" s="1"/>
-      <c r="Z39" s="1"/>
-      <c r="AA39" s="36"/>
-    </row>
-    <row r="40" spans="2:27" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C40" s="10"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="11">
-        <v>45670</v>
-      </c>
-      <c r="F40" s="11">
-        <v>45698</v>
-      </c>
-      <c r="G40" s="46"/>
-      <c r="H40" s="22">
-        <f t="shared" si="4"/>
-        <v>29</v>
-      </c>
-      <c r="I40" s="18">
-        <v>0</v>
-      </c>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
-      <c r="S40" s="1"/>
-      <c r="T40" s="1"/>
-      <c r="U40" s="1"/>
-      <c r="V40" s="1"/>
-      <c r="W40" s="1"/>
-      <c r="X40" s="1"/>
-      <c r="Y40" s="1"/>
-      <c r="Z40" s="1"/>
-      <c r="AA40" s="36"/>
-    </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G16:G36"/>
-    <mergeCell ref="G7:G15"/>
-    <mergeCell ref="J4:AA4"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="G4:G6"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="D4:D6"/>
+    <mergeCell ref="G16:G34"/>
+    <mergeCell ref="G7:G15"/>
+    <mergeCell ref="J4:AA4"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="G4:G6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="J5:AA40">
+  <conditionalFormatting sqref="J5:AA38">
     <cfRule type="expression" dxfId="1" priority="3">
       <formula>J$5=$F$3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J7:AA40">
+  <conditionalFormatting sqref="J7:AA38">
     <cfRule type="expression" dxfId="0" priority="4">
       <formula>AND(J$5&gt;=$E7,J$5&lt;=$F7)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D40 D7:D29">
+  <conditionalFormatting sqref="D29:D38 D7:D27">
     <cfRule type="dataBar" priority="67">
       <dataBar>
         <cfvo type="min"/>
@@ -4402,7 +4435,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
+  <conditionalFormatting sqref="D28">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -4416,8 +4449,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:I40">
-    <cfRule type="dataBar" priority="86">
+  <conditionalFormatting sqref="I7:I38">
+    <cfRule type="dataBar" priority="100">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4448,13 +4481,13 @@
                   <from>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>942975</xdr:colOff>
-                    <xdr:row>34</xdr:row>
+                    <xdr:row>32</xdr:row>
                     <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>1676400</xdr:colOff>
-                    <xdr:row>34</xdr:row>
+                    <xdr:row>32</xdr:row>
                     <xdr:rowOff>409575</xdr:rowOff>
                   </to>
                 </anchor>
@@ -4558,13 +4591,13 @@
                   <from>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>942975</xdr:colOff>
-                    <xdr:row>31</xdr:row>
+                    <xdr:row>29</xdr:row>
                     <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>1676400</xdr:colOff>
-                    <xdr:row>31</xdr:row>
+                    <xdr:row>29</xdr:row>
                     <xdr:rowOff>409575</xdr:rowOff>
                   </to>
                 </anchor>
@@ -4575,72 +4608,6 @@
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
             <control shapeId="1039" r:id="rId10" name="Check Box 15">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>942975</xdr:colOff>
-                    <xdr:row>32</xdr:row>
-                    <xdr:rowOff>123825</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>1676400</xdr:colOff>
-                    <xdr:row>32</xdr:row>
-                    <xdr:rowOff>409575</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1040" r:id="rId11" name="Check Box 16">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>942975</xdr:colOff>
-                    <xdr:row>33</xdr:row>
-                    <xdr:rowOff>123825</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>1676400</xdr:colOff>
-                    <xdr:row>33</xdr:row>
-                    <xdr:rowOff>409575</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1041" r:id="rId12" name="Check Box 17">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>942975</xdr:colOff>
-                    <xdr:row>35</xdr:row>
-                    <xdr:rowOff>123825</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>1676400</xdr:colOff>
-                    <xdr:row>36</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1037" r:id="rId13" name="Check Box 13">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4662,19 +4629,85 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
+            <control shapeId="1040" r:id="rId11" name="Check Box 16">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>942975</xdr:colOff>
+                    <xdr:row>31</xdr:row>
+                    <xdr:rowOff>123825</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>1676400</xdr:colOff>
+                    <xdr:row>31</xdr:row>
+                    <xdr:rowOff>409575</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1041" r:id="rId12" name="Check Box 17">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>942975</xdr:colOff>
+                    <xdr:row>33</xdr:row>
+                    <xdr:rowOff>123825</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>1676400</xdr:colOff>
+                    <xdr:row>34</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1037" r:id="rId13" name="Check Box 13">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>942975</xdr:colOff>
+                    <xdr:row>28</xdr:row>
+                    <xdr:rowOff>123825</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>1676400</xdr:colOff>
+                    <xdr:row>28</xdr:row>
+                    <xdr:rowOff>409575</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
             <control shapeId="1042" r:id="rId14" name="Check Box 18">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>942975</xdr:colOff>
-                    <xdr:row>29</xdr:row>
+                    <xdr:row>27</xdr:row>
                     <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>1676400</xdr:colOff>
-                    <xdr:row>30</xdr:row>
+                    <xdr:row>28</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -4699,7 +4732,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D31:D40 D7:D29</xm:sqref>
+          <xm:sqref>D29:D38 D7:D27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{71F59B32-8F1F-4736-8B79-6FF0ADE0672A}">
@@ -4712,7 +4745,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D30</xm:sqref>
+          <xm:sqref>D28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5E6E96A8-9112-4728-A340-025BFCD2777D}">
@@ -4725,7 +4758,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I7:I40</xm:sqref>
+          <xm:sqref>I7:I38</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4737,8 +4770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView showGridLines="0" topLeftCell="B17" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4749,7 +4782,7 @@
     <col min="5" max="5" width="60.625" customWidth="1"/>
     <col min="6" max="6" width="63.875" style="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="56.125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="29.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="53.5" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="31.5" bestFit="1" customWidth="1"/>
     <col min="10" max="23" width="27.125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="27.125" style="32" bestFit="1" customWidth="1"/>
@@ -4757,16 +4790,16 @@
   <sheetData>
     <row r="1" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:24" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
     </row>
     <row r="3" spans="1:24" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="14"/>
@@ -4776,7 +4809,7 @@
       </c>
       <c r="G3" s="15">
         <f ca="1">TODAY()</f>
-        <v>45670</v>
+        <v>45671</v>
       </c>
       <c r="H3" s="21" t="s">
         <v>3</v>
@@ -4789,136 +4822,136 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="17.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="76"/>
-      <c r="C4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="O4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="R4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="S4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="T4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="U4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="V4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="W4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="X4" s="79" t="s">
+      <c r="B4" s="81"/>
+      <c r="C4" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q4" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="R4" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="S4" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="T4" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="U4" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="V4" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="W4" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="X4" s="78" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="77"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="74"/>
-      <c r="T5" s="74"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
-      <c r="W5" s="74"/>
-      <c r="X5" s="80"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="60"/>
+      <c r="S5" s="60"/>
+      <c r="T5" s="60"/>
+      <c r="U5" s="60"/>
+      <c r="V5" s="60"/>
+      <c r="W5" s="60"/>
+      <c r="X5" s="79"/>
     </row>
     <row r="6" spans="1:24" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="75"/>
-      <c r="O6" s="75"/>
-      <c r="P6" s="75"/>
-      <c r="Q6" s="75"/>
-      <c r="R6" s="75"/>
-      <c r="S6" s="75"/>
-      <c r="T6" s="75"/>
-      <c r="U6" s="75"/>
-      <c r="V6" s="75"/>
-      <c r="W6" s="75"/>
-      <c r="X6" s="81"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="61"/>
+      <c r="V6" s="61"/>
+      <c r="W6" s="61"/>
+      <c r="X6" s="80"/>
     </row>
     <row r="7" spans="1:24" ht="27" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E7" s="26" t="s">
         <v>25</v>
@@ -4986,21 +5019,23 @@
         <v>45</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G8" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="H8" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="H8" s="24"/>
       <c r="I8" s="24"/>
       <c r="J8" s="24"/>
       <c r="K8" s="24"/>
@@ -5026,7 +5061,7 @@
       <c r="D9" s="27"/>
       <c r="E9" s="27"/>
       <c r="F9" s="27" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G9" s="24"/>
       <c r="H9" s="24"/>
@@ -5072,133 +5107,133 @@
       <c r="X11" s="40"/>
     </row>
     <row r="12" spans="1:24" s="12" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="76"/>
-      <c r="C12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="M12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="N12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="O12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="P12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="R12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="S12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="T12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="U12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="V12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="W12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="X12" s="79" t="s">
+      <c r="B12" s="81"/>
+      <c r="C12" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="O12" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="P12" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q12" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="R12" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="S12" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="T12" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="U12" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="V12" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="W12" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="X12" s="78" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:24" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="77"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="74"/>
-      <c r="K13" s="74"/>
-      <c r="L13" s="74"/>
-      <c r="M13" s="74"/>
-      <c r="N13" s="74"/>
-      <c r="O13" s="74"/>
-      <c r="P13" s="74"/>
-      <c r="Q13" s="74"/>
-      <c r="R13" s="74"/>
-      <c r="S13" s="74"/>
-      <c r="T13" s="74"/>
-      <c r="U13" s="74"/>
-      <c r="V13" s="74"/>
-      <c r="W13" s="74"/>
-      <c r="X13" s="80"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="60"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="60"/>
+      <c r="P13" s="60"/>
+      <c r="Q13" s="60"/>
+      <c r="R13" s="60"/>
+      <c r="S13" s="60"/>
+      <c r="T13" s="60"/>
+      <c r="U13" s="60"/>
+      <c r="V13" s="60"/>
+      <c r="W13" s="60"/>
+      <c r="X13" s="79"/>
     </row>
     <row r="14" spans="1:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="78"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="75"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="75"/>
-      <c r="M14" s="75"/>
-      <c r="N14" s="75"/>
-      <c r="O14" s="75"/>
-      <c r="P14" s="75"/>
-      <c r="Q14" s="75"/>
-      <c r="R14" s="75"/>
-      <c r="S14" s="75"/>
-      <c r="T14" s="75"/>
-      <c r="U14" s="75"/>
-      <c r="V14" s="75"/>
-      <c r="W14" s="75"/>
-      <c r="X14" s="81"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="61"/>
+      <c r="R14" s="61"/>
+      <c r="S14" s="61"/>
+      <c r="T14" s="61"/>
+      <c r="U14" s="61"/>
+      <c r="V14" s="61"/>
+      <c r="W14" s="61"/>
+      <c r="X14" s="80"/>
     </row>
     <row r="15" spans="1:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B15" s="25" t="s">
         <v>24</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E15" s="26" t="s">
         <v>25</v>
@@ -5269,10 +5304,12 @@
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="H16" s="24"/>
+      <c r="G16" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="H16" s="49" t="s">
+        <v>108</v>
+      </c>
       <c r="I16" s="24"/>
       <c r="J16" s="24"/>
       <c r="K16" s="24"/>
@@ -5294,133 +5331,133 @@
       <c r="X17" s="40"/>
     </row>
     <row r="18" spans="2:24" s="12" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="76"/>
-      <c r="C18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="J18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="M18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="N18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="O18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="P18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="R18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="S18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="T18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="U18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="V18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="W18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="X18" s="79" t="s">
+      <c r="B18" s="81"/>
+      <c r="C18" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="N18" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="O18" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="P18" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q18" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="R18" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="S18" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="T18" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="U18" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="V18" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="W18" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="X18" s="78" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="77"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="74"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="74"/>
-      <c r="K19" s="74"/>
-      <c r="L19" s="74"/>
-      <c r="M19" s="74"/>
-      <c r="N19" s="74"/>
-      <c r="O19" s="74"/>
-      <c r="P19" s="74"/>
-      <c r="Q19" s="74"/>
-      <c r="R19" s="74"/>
-      <c r="S19" s="74"/>
-      <c r="T19" s="74"/>
-      <c r="U19" s="74"/>
-      <c r="V19" s="74"/>
-      <c r="W19" s="74"/>
-      <c r="X19" s="80"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="60"/>
+      <c r="P19" s="60"/>
+      <c r="Q19" s="60"/>
+      <c r="R19" s="60"/>
+      <c r="S19" s="60"/>
+      <c r="T19" s="60"/>
+      <c r="U19" s="60"/>
+      <c r="V19" s="60"/>
+      <c r="W19" s="60"/>
+      <c r="X19" s="79"/>
     </row>
     <row r="20" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="78"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="75"/>
-      <c r="K20" s="75"/>
-      <c r="L20" s="75"/>
-      <c r="M20" s="75"/>
-      <c r="N20" s="75"/>
-      <c r="O20" s="75"/>
-      <c r="P20" s="75"/>
-      <c r="Q20" s="75"/>
-      <c r="R20" s="75"/>
-      <c r="S20" s="75"/>
-      <c r="T20" s="75"/>
-      <c r="U20" s="75"/>
-      <c r="V20" s="75"/>
-      <c r="W20" s="75"/>
-      <c r="X20" s="81"/>
+      <c r="B20" s="83"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="61"/>
+      <c r="P20" s="61"/>
+      <c r="Q20" s="61"/>
+      <c r="R20" s="61"/>
+      <c r="S20" s="61"/>
+      <c r="T20" s="61"/>
+      <c r="U20" s="61"/>
+      <c r="V20" s="61"/>
+      <c r="W20" s="61"/>
+      <c r="X20" s="80"/>
     </row>
     <row r="21" spans="2:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B21" s="25" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E21" s="26" t="s">
         <v>25</v>
@@ -5488,19 +5525,21 @@
         <v>48</v>
       </c>
       <c r="C22" s="44" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D22" s="44" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E22" s="44" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F22" s="44"/>
       <c r="G22" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="H22" s="44"/>
+        <v>109</v>
+      </c>
+      <c r="H22" s="44" t="s">
+        <v>111</v>
+      </c>
       <c r="I22" s="44"/>
       <c r="J22" s="44"/>
       <c r="K22" s="44"/>
@@ -5526,7 +5565,7 @@
       <c r="D23" s="44"/>
       <c r="E23" s="44"/>
       <c r="F23" s="44" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G23" s="44"/>
       <c r="H23" s="44"/>
@@ -5551,133 +5590,133 @@
       <c r="X24" s="40"/>
     </row>
     <row r="25" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="76"/>
-      <c r="C25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="J25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="K25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="L25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="M25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="N25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="O25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="P25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="R25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="S25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="T25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="U25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="V25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="W25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="X25" s="79" t="s">
+      <c r="B25" s="81"/>
+      <c r="C25" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="M25" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="N25" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="O25" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="P25" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q25" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="R25" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="S25" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="T25" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="U25" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="V25" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="W25" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="X25" s="78" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="2:24" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="77"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="74"/>
-      <c r="J26" s="74"/>
-      <c r="K26" s="74"/>
-      <c r="L26" s="74"/>
-      <c r="M26" s="74"/>
-      <c r="N26" s="74"/>
-      <c r="O26" s="74"/>
-      <c r="P26" s="74"/>
-      <c r="Q26" s="74"/>
-      <c r="R26" s="74"/>
-      <c r="S26" s="74"/>
-      <c r="T26" s="74"/>
-      <c r="U26" s="74"/>
-      <c r="V26" s="74"/>
-      <c r="W26" s="74"/>
-      <c r="X26" s="80"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="60"/>
+      <c r="N26" s="60"/>
+      <c r="O26" s="60"/>
+      <c r="P26" s="60"/>
+      <c r="Q26" s="60"/>
+      <c r="R26" s="60"/>
+      <c r="S26" s="60"/>
+      <c r="T26" s="60"/>
+      <c r="U26" s="60"/>
+      <c r="V26" s="60"/>
+      <c r="W26" s="60"/>
+      <c r="X26" s="79"/>
     </row>
     <row r="27" spans="2:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="78"/>
-      <c r="C27" s="75"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="75"/>
-      <c r="I27" s="75"/>
-      <c r="J27" s="75"/>
-      <c r="K27" s="75"/>
-      <c r="L27" s="75"/>
-      <c r="M27" s="75"/>
-      <c r="N27" s="75"/>
-      <c r="O27" s="75"/>
-      <c r="P27" s="75"/>
-      <c r="Q27" s="75"/>
-      <c r="R27" s="75"/>
-      <c r="S27" s="75"/>
-      <c r="T27" s="75"/>
-      <c r="U27" s="75"/>
-      <c r="V27" s="75"/>
-      <c r="W27" s="75"/>
-      <c r="X27" s="81"/>
+      <c r="B27" s="83"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="61"/>
+      <c r="N27" s="61"/>
+      <c r="O27" s="61"/>
+      <c r="P27" s="61"/>
+      <c r="Q27" s="61"/>
+      <c r="R27" s="61"/>
+      <c r="S27" s="61"/>
+      <c r="T27" s="61"/>
+      <c r="U27" s="61"/>
+      <c r="V27" s="61"/>
+      <c r="W27" s="61"/>
+      <c r="X27" s="80"/>
     </row>
     <row r="28" spans="2:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B28" s="25" t="s">
         <v>24</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E28" s="26" t="s">
         <v>25</v>
@@ -5745,15 +5784,15 @@
         <v>50</v>
       </c>
       <c r="C29" s="45" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D29" s="27"/>
       <c r="E29" s="27" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F29" s="47"/>
       <c r="G29" s="27" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
@@ -5778,83 +5817,6 @@
     <row r="32" spans="2:24" ht="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="W4:W6"/>
-    <mergeCell ref="W12:W14"/>
-    <mergeCell ref="W18:W20"/>
-    <mergeCell ref="W25:W27"/>
-    <mergeCell ref="X4:X6"/>
-    <mergeCell ref="X12:X14"/>
-    <mergeCell ref="X18:X20"/>
-    <mergeCell ref="X25:X27"/>
-    <mergeCell ref="U4:U6"/>
-    <mergeCell ref="U12:U14"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="U25:U27"/>
-    <mergeCell ref="V4:V6"/>
-    <mergeCell ref="V12:V14"/>
-    <mergeCell ref="V18:V20"/>
-    <mergeCell ref="V25:V27"/>
-    <mergeCell ref="S4:S6"/>
-    <mergeCell ref="S12:S14"/>
-    <mergeCell ref="S18:S20"/>
-    <mergeCell ref="S25:S27"/>
-    <mergeCell ref="T4:T6"/>
-    <mergeCell ref="T12:T14"/>
-    <mergeCell ref="T18:T20"/>
-    <mergeCell ref="T25:T27"/>
-    <mergeCell ref="Q4:Q6"/>
-    <mergeCell ref="Q12:Q14"/>
-    <mergeCell ref="Q18:Q20"/>
-    <mergeCell ref="Q25:Q27"/>
-    <mergeCell ref="R4:R6"/>
-    <mergeCell ref="R12:R14"/>
-    <mergeCell ref="R18:R20"/>
-    <mergeCell ref="R25:R27"/>
-    <mergeCell ref="O4:O6"/>
-    <mergeCell ref="O12:O14"/>
-    <mergeCell ref="O18:O20"/>
-    <mergeCell ref="O25:O27"/>
-    <mergeCell ref="P4:P6"/>
-    <mergeCell ref="P12:P14"/>
-    <mergeCell ref="P18:P20"/>
-    <mergeCell ref="P25:P27"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="M25:M27"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="N12:N14"/>
-    <mergeCell ref="N18:N20"/>
-    <mergeCell ref="N25:N27"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="L25:L27"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="B12:B14"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C12:C14"/>
@@ -5871,6 +5833,83 @@
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="G4:G6"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="L25:L27"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="M25:M27"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N12:N14"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="N25:N27"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="O12:O14"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="O25:O27"/>
+    <mergeCell ref="P4:P6"/>
+    <mergeCell ref="P12:P14"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="P25:P27"/>
+    <mergeCell ref="Q4:Q6"/>
+    <mergeCell ref="Q12:Q14"/>
+    <mergeCell ref="Q18:Q20"/>
+    <mergeCell ref="Q25:Q27"/>
+    <mergeCell ref="R4:R6"/>
+    <mergeCell ref="R12:R14"/>
+    <mergeCell ref="R18:R20"/>
+    <mergeCell ref="R25:R27"/>
+    <mergeCell ref="S4:S6"/>
+    <mergeCell ref="S12:S14"/>
+    <mergeCell ref="S18:S20"/>
+    <mergeCell ref="S25:S27"/>
+    <mergeCell ref="T4:T6"/>
+    <mergeCell ref="T12:T14"/>
+    <mergeCell ref="T18:T20"/>
+    <mergeCell ref="T25:T27"/>
+    <mergeCell ref="U4:U6"/>
+    <mergeCell ref="U12:U14"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="U25:U27"/>
+    <mergeCell ref="V4:V6"/>
+    <mergeCell ref="V12:V14"/>
+    <mergeCell ref="V18:V20"/>
+    <mergeCell ref="V25:V27"/>
+    <mergeCell ref="W4:W6"/>
+    <mergeCell ref="W12:W14"/>
+    <mergeCell ref="W18:W20"/>
+    <mergeCell ref="W25:W27"/>
+    <mergeCell ref="X4:X6"/>
+    <mergeCell ref="X12:X14"/>
+    <mergeCell ref="X18:X20"/>
+    <mergeCell ref="X25:X27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
